--- a/yieldFiles/A1/a1_det11.xlsx
+++ b/yieldFiles/A1/a1_det11.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C705"/>
+  <dimension ref="A1:C844"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2308,10 +2308,10 @@
         <v>2.48496</v>
       </c>
       <c r="B177" t="n">
-        <v>3.86649108e-13</v>
+        <v>8.12042586e-13</v>
       </c>
       <c r="C177" t="n">
-        <v>7.20169488e-15</v>
+        <v>1.10631717e-14</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,10 @@
         <v>2.48496</v>
       </c>
       <c r="B178" t="n">
-        <v>8.12042586e-13</v>
+        <v>3.86649108e-13</v>
       </c>
       <c r="C178" t="n">
-        <v>1.10631717e-14</v>
+        <v>7.20169488e-15</v>
       </c>
     </row>
     <row r="179">
@@ -3518,10 +3518,10 @@
         <v>2.71393</v>
       </c>
       <c r="B287" t="n">
-        <v>2.02133952e-13</v>
+        <v>2.00961288e-13</v>
       </c>
       <c r="C287" t="n">
-        <v>8.027926380000001e-15</v>
+        <v>6.82150824e-15</v>
       </c>
     </row>
     <row r="288">
@@ -3529,10 +3529,10 @@
         <v>2.71393</v>
       </c>
       <c r="B288" t="n">
-        <v>2.00961288e-13</v>
+        <v>2.02133952e-13</v>
       </c>
       <c r="C288" t="n">
-        <v>6.82150824e-15</v>
+        <v>8.027926380000001e-15</v>
       </c>
     </row>
     <row r="289">
@@ -4442,10 +4442,10 @@
         <v>2.74252</v>
       </c>
       <c r="B371" t="n">
-        <v>1.94319396e-13</v>
+        <v>1.94135166e-13</v>
       </c>
       <c r="C371" t="n">
-        <v>4.37717664e-15</v>
+        <v>3.936114e-15</v>
       </c>
     </row>
     <row r="372">
@@ -4453,10 +4453,10 @@
         <v>2.74252</v>
       </c>
       <c r="B372" t="n">
-        <v>1.94135166e-13</v>
+        <v>1.94319396e-13</v>
       </c>
       <c r="C372" t="n">
-        <v>3.936114e-15</v>
+        <v>4.37717664e-15</v>
       </c>
     </row>
     <row r="373">
@@ -5451,2675 +5451,4204 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>2.86985</v>
+        <v>2.86983</v>
       </c>
       <c r="B463" t="n">
-        <v>1.60249662e-13</v>
+        <v>2.53843308e-13</v>
       </c>
       <c r="C463" t="n">
-        <v>7.64397504e-15</v>
+        <v>7.487139239999999e-15</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>2.87044</v>
+        <v>2.86985</v>
       </c>
       <c r="B464" t="n">
-        <v>1.437317604e-13</v>
+        <v>1.60249662e-13</v>
       </c>
       <c r="C464" t="n">
-        <v>8.195303340000001e-15</v>
+        <v>7.64397504e-15</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>2.87098</v>
+        <v>2.87044</v>
       </c>
       <c r="B465" t="n">
-        <v>2.67034176e-13</v>
+        <v>1.437317604e-13</v>
       </c>
       <c r="C465" t="n">
-        <v>7.42392432e-15</v>
+        <v>8.195303340000001e-15</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>2.8711</v>
+        <v>2.87079</v>
       </c>
       <c r="B466" t="n">
-        <v>2.06782956e-13</v>
+        <v>3.6600894e-13</v>
       </c>
       <c r="C466" t="n">
-        <v>9.258903180000002e-15</v>
+        <v>1.73164986e-14</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>2.87156</v>
+        <v>2.87098</v>
       </c>
       <c r="B467" t="n">
-        <v>2.70547362e-13</v>
+        <v>2.67034176e-13</v>
       </c>
       <c r="C467" t="n">
-        <v>9.52002918e-15</v>
+        <v>7.42392432e-15</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>2.87192</v>
+        <v>2.8711</v>
       </c>
       <c r="B468" t="n">
-        <v>3.4347681e-13</v>
+        <v>2.06782956e-13</v>
       </c>
       <c r="C468" t="n">
-        <v>1.1195577e-14</v>
+        <v>9.258903180000002e-15</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>2.87203</v>
+        <v>2.87156</v>
       </c>
       <c r="B469" t="n">
-        <v>3.17261682e-13</v>
+        <v>2.70547362e-13</v>
       </c>
       <c r="C469" t="n">
-        <v>1.17158265e-14</v>
+        <v>9.52002918e-15</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>2.87225</v>
+        <v>2.87192</v>
       </c>
       <c r="B470" t="n">
-        <v>3.37571838e-13</v>
+        <v>3.57106626e-13</v>
       </c>
       <c r="C470" t="n">
-        <v>1.165908366e-14</v>
+        <v>1.89085662e-14</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>2.8725</v>
+        <v>2.87192</v>
       </c>
       <c r="B471" t="n">
-        <v>3.356654580000001e-13</v>
+        <v>3.4347681e-13</v>
       </c>
       <c r="C471" t="n">
-        <v>1.222088904e-14</v>
+        <v>1.1195577e-14</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>2.87281</v>
+        <v>2.87203</v>
       </c>
       <c r="B472" t="n">
-        <v>3.101263740000001e-13</v>
+        <v>3.17261682e-13</v>
       </c>
       <c r="C472" t="n">
-        <v>1.492235766e-14</v>
+        <v>1.17158265e-14</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>2.87297</v>
+        <v>2.87225</v>
       </c>
       <c r="B473" t="n">
-        <v>3.31040484e-13</v>
+        <v>3.37571838e-13</v>
       </c>
       <c r="C473" t="n">
-        <v>1.083133026e-14</v>
+        <v>1.165908366e-14</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>2.87318</v>
+        <v>2.8725</v>
       </c>
       <c r="B474" t="n">
-        <v>3.07173888e-13</v>
+        <v>3.356654580000001e-13</v>
       </c>
       <c r="C474" t="n">
-        <v>1.18971729e-14</v>
+        <v>1.222088904e-14</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>2.87337</v>
+        <v>2.87281</v>
       </c>
       <c r="B475" t="n">
-        <v>2.9834847e-13</v>
+        <v>3.101263740000001e-13</v>
       </c>
       <c r="C475" t="n">
-        <v>1.194552126e-14</v>
+        <v>1.492235766e-14</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>2.87386</v>
+        <v>2.87288</v>
       </c>
       <c r="B476" t="n">
-        <v>2.15223894e-13</v>
+        <v>3.20377572e-13</v>
       </c>
       <c r="C476" t="n">
-        <v>8.313787259999999e-15</v>
+        <v>2.78631054e-14</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>2.87398</v>
+        <v>2.87297</v>
       </c>
       <c r="B477" t="n">
-        <v>1.66462218e-13</v>
+        <v>3.31040484e-13</v>
       </c>
       <c r="C477" t="n">
-        <v>1.109014938e-14</v>
+        <v>1.083133026e-14</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>2.87487</v>
+        <v>2.87318</v>
       </c>
       <c r="B478" t="n">
-        <v>1.93427082e-13</v>
+        <v>3.07173888e-13</v>
       </c>
       <c r="C478" t="n">
-        <v>1.272526272e-14</v>
+        <v>1.18971729e-14</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>2.87584</v>
+        <v>2.87337</v>
       </c>
       <c r="B479" t="n">
-        <v>1.502280306e-13</v>
+        <v>2.9834847e-13</v>
       </c>
       <c r="C479" t="n">
-        <v>5.53862664e-15</v>
+        <v>1.194552126e-14</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>2.87602</v>
+        <v>2.87386</v>
       </c>
       <c r="B480" t="n">
-        <v>1.547158734e-13</v>
+        <v>2.15223894e-13</v>
       </c>
       <c r="C480" t="n">
-        <v>3.93769998e-15</v>
+        <v>8.313787259999999e-15</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>2.87699</v>
+        <v>2.87398</v>
       </c>
       <c r="B481" t="n">
-        <v>1.244335878e-13</v>
+        <v>1.66462218e-13</v>
       </c>
       <c r="C481" t="n">
-        <v>5.7501387e-15</v>
+        <v>1.109014938e-14</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>2.87795</v>
+        <v>2.87412</v>
       </c>
       <c r="B482" t="n">
-        <v>1.66526298e-13</v>
+        <v>2.19421134e-13</v>
       </c>
       <c r="C482" t="n">
-        <v>7.50413646e-15</v>
+        <v>1.383504822e-14</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87487</v>
       </c>
       <c r="B483" t="n">
-        <v>1.92265632e-13</v>
+        <v>1.93427082e-13</v>
       </c>
       <c r="C483" t="n">
-        <v>6.5824578e-15</v>
+        <v>1.272526272e-14</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87584</v>
       </c>
       <c r="B484" t="n">
-        <v>1.9580445e-13</v>
+        <v>1.502280306e-13</v>
       </c>
       <c r="C484" t="n">
-        <v>1.041287184e-14</v>
+        <v>5.53862664e-15</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>2.87999</v>
+        <v>2.87591</v>
       </c>
       <c r="B485" t="n">
-        <v>1.491929784e-13</v>
+        <v>1.62239346e-13</v>
       </c>
       <c r="C485" t="n">
-        <v>5.67968274e-15</v>
+        <v>1.453739706e-14</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>2.88082</v>
+        <v>2.87602</v>
       </c>
       <c r="B486" t="n">
-        <v>8.999074799999999e-14</v>
+        <v>1.547158734e-13</v>
       </c>
       <c r="C486" t="n">
-        <v>8.761530239999999e-15</v>
+        <v>3.93769998e-15</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>2.88879</v>
+        <v>2.87699</v>
       </c>
       <c r="B487" t="n">
-        <v>5.679250199999999e-14</v>
+        <v>1.244335878e-13</v>
       </c>
       <c r="C487" t="n">
-        <v>4.834403460000001e-15</v>
+        <v>5.7501387e-15</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>2.90444</v>
+        <v>2.87795</v>
       </c>
       <c r="B488" t="n">
-        <v>1.61789184e-13</v>
+        <v>1.66526298e-13</v>
       </c>
       <c r="C488" t="n">
-        <v>6.83006292e-15</v>
+        <v>7.50413646e-15</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>2.90481</v>
+        <v>2.87802</v>
       </c>
       <c r="B489" t="n">
-        <v>2.75101848e-13</v>
+        <v>2.31022818e-13</v>
       </c>
       <c r="C489" t="n">
-        <v>9.266769000000001e-15</v>
+        <v>9.63830484e-15</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>2.90576</v>
+        <v>2.8788</v>
       </c>
       <c r="B490" t="n">
-        <v>1.40344011e-12</v>
+        <v>1.397844324e-13</v>
       </c>
       <c r="C490" t="n">
-        <v>3.53944278e-14</v>
+        <v>1.429386102e-14</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.87894</v>
       </c>
       <c r="B491" t="n">
-        <v>2.21934672e-12</v>
+        <v>1.92265632e-13</v>
       </c>
       <c r="C491" t="n">
-        <v>3.48857928e-14</v>
+        <v>6.5824578e-15</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.87894</v>
       </c>
       <c r="B492" t="n">
-        <v>2.1268953e-12</v>
+        <v>1.9580445e-13</v>
       </c>
       <c r="C492" t="n">
-        <v>2.46953106e-14</v>
+        <v>1.041287184e-14</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>2.90644</v>
+        <v>2.87999</v>
       </c>
       <c r="B493" t="n">
-        <v>1.20274956e-12</v>
+        <v>1.491929784e-13</v>
       </c>
       <c r="C493" t="n">
-        <v>3.32528742e-14</v>
+        <v>5.67968274e-15</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>2.90675</v>
+        <v>2.88082</v>
       </c>
       <c r="B494" t="n">
-        <v>2.20880556e-12</v>
+        <v>8.999074799999999e-14</v>
       </c>
       <c r="C494" t="n">
-        <v>3.47276754e-14</v>
+        <v>8.761530239999999e-15</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>2.90706</v>
+        <v>2.88098</v>
       </c>
       <c r="B495" t="n">
-        <v>1.387096506e-12</v>
+        <v>1.23937929e-13</v>
       </c>
       <c r="C495" t="n">
-        <v>3.76633404e-14</v>
+        <v>1.72546614e-14</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>2.90739</v>
+        <v>2.88879</v>
       </c>
       <c r="B496" t="n">
-        <v>5.9258781e-13</v>
+        <v>5.679250199999999e-14</v>
       </c>
       <c r="C496" t="n">
-        <v>1.71248994e-14</v>
+        <v>4.834403460000001e-15</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>2.90788</v>
+        <v>2.90444</v>
       </c>
       <c r="B497" t="n">
-        <v>3.65513922e-13</v>
+        <v>1.61789184e-13</v>
       </c>
       <c r="C497" t="n">
-        <v>8.35633638e-15</v>
+        <v>6.83006292e-15</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>2.9085</v>
+        <v>2.90481</v>
       </c>
       <c r="B498" t="n">
-        <v>2.74404978e-13</v>
+        <v>2.75101848e-13</v>
       </c>
       <c r="C498" t="n">
-        <v>8.827580699999999e-15</v>
+        <v>9.266769000000001e-15</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>2.90904</v>
+        <v>2.90576</v>
       </c>
       <c r="B499" t="n">
-        <v>2.283186420000001e-13</v>
+        <v>1.40344011e-12</v>
       </c>
       <c r="C499" t="n">
-        <v>5.87783412e-15</v>
+        <v>3.53944278e-14</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>2.90949</v>
+        <v>2.90595</v>
       </c>
       <c r="B500" t="n">
-        <v>1.81596312e-13</v>
+        <v>2.21934672e-12</v>
       </c>
       <c r="C500" t="n">
-        <v>5.390810100000001e-15</v>
+        <v>3.48857928e-14</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>2.91001</v>
+        <v>2.90595</v>
       </c>
       <c r="B501" t="n">
-        <v>1.381146678e-13</v>
+        <v>2.1268953e-12</v>
       </c>
       <c r="C501" t="n">
-        <v>5.00197266e-15</v>
+        <v>2.46953106e-14</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>2.91027</v>
+        <v>2.90644</v>
       </c>
       <c r="B502" t="n">
-        <v>1.244494476e-13</v>
+        <v>1.20274956e-12</v>
       </c>
       <c r="C502" t="n">
-        <v>4.812776460000001e-15</v>
+        <v>3.32528742e-14</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>2.9115</v>
+        <v>2.90675</v>
       </c>
       <c r="B503" t="n">
-        <v>1.039132494e-13</v>
+        <v>2.20880556e-12</v>
       </c>
       <c r="C503" t="n">
-        <v>4.21691256e-15</v>
+        <v>3.47276754e-14</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>2.91247</v>
+        <v>2.90706</v>
       </c>
       <c r="B504" t="n">
-        <v>7.7181957e-14</v>
+        <v>1.387096506e-12</v>
       </c>
       <c r="C504" t="n">
-        <v>4.59897354e-15</v>
+        <v>3.76633404e-14</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>2.91341</v>
+        <v>2.90739</v>
       </c>
       <c r="B505" t="n">
-        <v>7.924405139999999e-14</v>
+        <v>5.9258781e-13</v>
       </c>
       <c r="C505" t="n">
-        <v>3.65821506e-15</v>
+        <v>1.71248994e-14</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>2.91393</v>
+        <v>2.90788</v>
       </c>
       <c r="B506" t="n">
-        <v>7.740815939999999e-14</v>
+        <v>3.65513922e-13</v>
       </c>
       <c r="C506" t="n">
-        <v>3.77995104e-15</v>
+        <v>8.35633638e-15</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>2.91445</v>
+        <v>2.9085</v>
       </c>
       <c r="B507" t="n">
-        <v>1.087919802e-13</v>
+        <v>2.74404978e-13</v>
       </c>
       <c r="C507" t="n">
-        <v>5.37589548e-15</v>
+        <v>8.827580699999999e-15</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>2.91504</v>
+        <v>2.90904</v>
       </c>
       <c r="B508" t="n">
-        <v>2.648971080000001e-13</v>
+        <v>2.283186420000001e-13</v>
       </c>
       <c r="C508" t="n">
-        <v>7.86271212e-15</v>
+        <v>5.87783412e-15</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>2.91537</v>
+        <v>2.90949</v>
       </c>
       <c r="B509" t="n">
-        <v>9.365420160000002e-13</v>
+        <v>1.81596312e-13</v>
       </c>
       <c r="C509" t="n">
-        <v>1.91298024e-14</v>
+        <v>5.390810100000001e-15</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>2.91549</v>
+        <v>2.91001</v>
       </c>
       <c r="B510" t="n">
-        <v>1.02660165e-12</v>
+        <v>1.381146678e-13</v>
       </c>
       <c r="C510" t="n">
-        <v>1.6624755e-14</v>
+        <v>5.00197266e-15</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>2.91566</v>
+        <v>2.91027</v>
       </c>
       <c r="B511" t="n">
-        <v>7.88988204e-13</v>
+        <v>1.244494476e-13</v>
       </c>
       <c r="C511" t="n">
-        <v>2.13160518e-14</v>
+        <v>4.812776460000001e-15</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>2.91585</v>
+        <v>2.9115</v>
       </c>
       <c r="B512" t="n">
-        <v>6.262346160000001e-13</v>
+        <v>1.039132494e-13</v>
       </c>
       <c r="C512" t="n">
-        <v>1.57326012e-14</v>
+        <v>4.21691256e-15</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>2.91604</v>
+        <v>2.91247</v>
       </c>
       <c r="B513" t="n">
-        <v>3.60099162e-13</v>
+        <v>7.7181957e-14</v>
       </c>
       <c r="C513" t="n">
-        <v>1.11161979e-14</v>
+        <v>4.59897354e-15</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>2.91648</v>
+        <v>2.91341</v>
       </c>
       <c r="B514" t="n">
-        <v>1.73286738e-13</v>
+        <v>7.924405139999999e-14</v>
       </c>
       <c r="C514" t="n">
-        <v>5.8838256e-15</v>
+        <v>3.65821506e-15</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>2.91693</v>
+        <v>2.91393</v>
       </c>
       <c r="B515" t="n">
-        <v>1.521618048e-13</v>
+        <v>7.740815939999999e-14</v>
       </c>
       <c r="C515" t="n">
-        <v>5.13562752e-15</v>
+        <v>3.77995104e-15</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>2.91745</v>
+        <v>2.91445</v>
       </c>
       <c r="B516" t="n">
-        <v>9.41426514e-14</v>
+        <v>1.087919802e-13</v>
       </c>
       <c r="C516" t="n">
-        <v>2.61580968e-15</v>
+        <v>5.37589548e-15</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>2.91793</v>
+        <v>2.91504</v>
       </c>
       <c r="B517" t="n">
-        <v>8.318977739999999e-14</v>
+        <v>2.648971080000001e-13</v>
       </c>
       <c r="C517" t="n">
-        <v>3.94104816e-15</v>
+        <v>7.86271212e-15</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>2.9184</v>
+        <v>2.91537</v>
       </c>
       <c r="B518" t="n">
-        <v>7.39446354e-14</v>
+        <v>9.365420160000002e-13</v>
       </c>
       <c r="C518" t="n">
-        <v>2.415015e-15</v>
+        <v>1.91298024e-14</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>2.91892</v>
+        <v>2.91549</v>
       </c>
       <c r="B519" t="n">
-        <v>6.6744927e-14</v>
+        <v>1.02660165e-12</v>
       </c>
       <c r="C519" t="n">
-        <v>2.41980498e-15</v>
+        <v>1.6624755e-14</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>2.91946</v>
+        <v>2.91566</v>
       </c>
       <c r="B520" t="n">
-        <v>6.10318746e-14</v>
+        <v>7.88988204e-13</v>
       </c>
       <c r="C520" t="n">
-        <v>2.1675861e-15</v>
+        <v>2.13160518e-14</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>2.91991</v>
+        <v>2.91585</v>
       </c>
       <c r="B521" t="n">
-        <v>5.94055242e-14</v>
+        <v>6.262346160000001e-13</v>
       </c>
       <c r="C521" t="n">
-        <v>2.43846828e-15</v>
+        <v>1.57326012e-14</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>2.92043</v>
+        <v>2.91604</v>
       </c>
       <c r="B522" t="n">
-        <v>4.92063912e-14</v>
+        <v>3.60099162e-13</v>
       </c>
       <c r="C522" t="n">
-        <v>2.16907596e-15</v>
+        <v>1.11161979e-14</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>2.92084</v>
+        <v>2.91648</v>
       </c>
       <c r="B523" t="n">
-        <v>5.5599813e-14</v>
+        <v>1.73286738e-13</v>
       </c>
       <c r="C523" t="n">
-        <v>2.42491536e-15</v>
+        <v>5.8838256e-15</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>2.92143</v>
+        <v>2.91693</v>
       </c>
       <c r="B524" t="n">
-        <v>5.0129784e-14</v>
+        <v>1.521618048e-13</v>
       </c>
       <c r="C524" t="n">
-        <v>2.2324671e-15</v>
+        <v>5.13562752e-15</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>2.9219</v>
+        <v>2.91745</v>
       </c>
       <c r="B525" t="n">
-        <v>5.07984588e-14</v>
+        <v>9.41426514e-14</v>
       </c>
       <c r="C525" t="n">
-        <v>2.51624538e-15</v>
+        <v>2.61580968e-15</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>2.92247</v>
+        <v>2.91793</v>
       </c>
       <c r="B526" t="n">
-        <v>5.1325677e-14</v>
+        <v>8.318977739999999e-14</v>
       </c>
       <c r="C526" t="n">
-        <v>2.30476536e-15</v>
+        <v>3.94104816e-15</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>2.92297</v>
+        <v>2.9184</v>
       </c>
       <c r="B527" t="n">
-        <v>4.94076024e-14</v>
+        <v>7.39446354e-14</v>
       </c>
       <c r="C527" t="n">
-        <v>2.6132625e-15</v>
+        <v>2.415015e-15</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>2.92346</v>
+        <v>2.91892</v>
       </c>
       <c r="B528" t="n">
-        <v>4.7750013e-14</v>
+        <v>6.6744927e-14</v>
       </c>
       <c r="C528" t="n">
-        <v>2.5535079e-15</v>
+        <v>2.41980498e-15</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>2.92583</v>
+        <v>2.91946</v>
       </c>
       <c r="B529" t="n">
-        <v>4.32432666e-14</v>
+        <v>6.10318746e-14</v>
       </c>
       <c r="C529" t="n">
-        <v>2.37959478e-15</v>
+        <v>2.1675861e-15</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>2.92979</v>
+        <v>2.91991</v>
       </c>
       <c r="B530" t="n">
-        <v>5.03579088e-14</v>
+        <v>5.94055242e-14</v>
       </c>
       <c r="C530" t="n">
-        <v>2.82298032e-15</v>
+        <v>2.43846828e-15</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>2.93966</v>
+        <v>2.92043</v>
       </c>
       <c r="B531" t="n">
-        <v>6.56478774e-14</v>
+        <v>4.92063912e-14</v>
       </c>
       <c r="C531" t="n">
-        <v>2.6911998e-15</v>
+        <v>2.16907596e-15</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>2.95006</v>
+        <v>2.92084</v>
       </c>
       <c r="B532" t="n">
-        <v>1.218620574e-13</v>
+        <v>5.5599813e-14</v>
       </c>
       <c r="C532" t="n">
-        <v>3.80252322e-15</v>
+        <v>2.42491536e-15</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>2.9597</v>
+        <v>2.92143</v>
       </c>
       <c r="B533" t="n">
-        <v>1.36339011e-13</v>
+        <v>5.0129784e-14</v>
       </c>
       <c r="C533" t="n">
-        <v>4.17181626e-15</v>
+        <v>2.2324671e-15</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>2.96984</v>
+        <v>2.9219</v>
       </c>
       <c r="B534" t="n">
-        <v>9.77707008e-14</v>
+        <v>5.07984588e-14</v>
       </c>
       <c r="C534" t="n">
-        <v>3.21207408e-15</v>
+        <v>2.51624538e-15</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>2.97979</v>
+        <v>2.92247</v>
       </c>
       <c r="B535" t="n">
-        <v>1.077332184e-13</v>
+        <v>5.1325677e-14</v>
       </c>
       <c r="C535" t="n">
-        <v>3.97779804e-15</v>
+        <v>2.30476536e-15</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>2.98967</v>
+        <v>2.92297</v>
       </c>
       <c r="B536" t="n">
-        <v>1.382955336e-13</v>
+        <v>4.94076024e-14</v>
       </c>
       <c r="C536" t="n">
-        <v>4.45987188e-15</v>
+        <v>2.6132625e-15</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>2.99885</v>
+        <v>2.92346</v>
       </c>
       <c r="B537" t="n">
-        <v>2.60938566e-13</v>
+        <v>4.7750013e-14</v>
       </c>
       <c r="C537" t="n">
-        <v>9.222393599999999e-15</v>
+        <v>2.5535079e-15</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>2.99993</v>
+        <v>2.92583</v>
       </c>
       <c r="B538" t="n">
-        <v>2.55088062e-13</v>
+        <v>4.32432666e-14</v>
       </c>
       <c r="C538" t="n">
-        <v>7.689680099999999e-15</v>
+        <v>2.37959478e-15</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>3.00403</v>
+        <v>2.92979</v>
       </c>
       <c r="B539" t="n">
-        <v>4.22050104e-13</v>
+        <v>5.03579088e-14</v>
       </c>
       <c r="C539" t="n">
-        <v>8.691651000000001e-15</v>
+        <v>2.82298032e-15</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>3.00807</v>
+        <v>2.93966</v>
       </c>
       <c r="B540" t="n">
-        <v>6.20289594e-13</v>
+        <v>6.56478774e-14</v>
       </c>
       <c r="C540" t="n">
-        <v>1.141469856e-14</v>
+        <v>2.6911998e-15</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>3.01001</v>
+        <v>2.95006</v>
       </c>
       <c r="B541" t="n">
-        <v>8.368159140000001e-13</v>
+        <v>1.218620574e-13</v>
       </c>
       <c r="C541" t="n">
-        <v>1.052768718e-14</v>
+        <v>3.80252322e-15</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>3.01128</v>
+        <v>2.9597</v>
       </c>
       <c r="B542" t="n">
-        <v>1.035817956e-12</v>
+        <v>1.36339011e-13</v>
       </c>
       <c r="C542" t="n">
-        <v>1.65682044e-14</v>
+        <v>4.17181626e-15</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>3.01174</v>
+        <v>2.96984</v>
       </c>
       <c r="B543" t="n">
-        <v>1.137814092e-12</v>
+        <v>9.77707008e-14</v>
       </c>
       <c r="C543" t="n">
-        <v>1.6817796e-14</v>
+        <v>3.21207408e-15</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>3.01205</v>
+        <v>2.97074</v>
       </c>
       <c r="B544" t="n">
-        <v>1.216952892e-12</v>
+        <v>1.019399058e-13</v>
       </c>
       <c r="C544" t="n">
-        <v>1.83919212e-14</v>
+        <v>1.281446208e-14</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>3.01229</v>
+        <v>2.97979</v>
       </c>
       <c r="B545" t="n">
-        <v>1.318063122e-12</v>
+        <v>1.077332184e-13</v>
       </c>
       <c r="C545" t="n">
-        <v>1.67378562e-14</v>
+        <v>3.97779804e-15</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>3.01249</v>
+        <v>2.98023</v>
       </c>
       <c r="B546" t="n">
-        <v>1.370216232e-12</v>
+        <v>1.256647248e-13</v>
       </c>
       <c r="C546" t="n">
-        <v>1.86266142e-14</v>
+        <v>1.044028206e-14</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>3.01268</v>
+        <v>2.98967</v>
       </c>
       <c r="B547" t="n">
-        <v>1.374222834e-12</v>
+        <v>1.382955336e-13</v>
       </c>
       <c r="C547" t="n">
-        <v>1.63096416e-14</v>
+        <v>4.45987188e-15</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>3.01299</v>
+        <v>2.99092</v>
       </c>
       <c r="B548" t="n">
-        <v>1.403827794e-12</v>
+        <v>1.6738497e-13</v>
       </c>
       <c r="C548" t="n">
-        <v>1.8363726e-14</v>
+        <v>8.939912939999999e-15</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>3.01352</v>
+        <v>2.99494</v>
       </c>
       <c r="B549" t="n">
-        <v>1.391822406e-12</v>
+        <v>2.35066266e-13</v>
       </c>
       <c r="C549" t="n">
-        <v>1.7905554e-14</v>
+        <v>1.02149928e-14</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>3.01388</v>
+        <v>2.99885</v>
       </c>
       <c r="B550" t="n">
-        <v>1.416073482e-12</v>
+        <v>2.60938566e-13</v>
       </c>
       <c r="C550" t="n">
-        <v>1.73863458e-14</v>
+        <v>9.222393599999999e-15</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>3.01436</v>
+        <v>2.9989</v>
       </c>
       <c r="B551" t="n">
-        <v>1.234137546e-12</v>
+        <v>2.82137832e-13</v>
       </c>
       <c r="C551" t="n">
-        <v>1.65100518e-14</v>
+        <v>1.27350189e-14</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>3.01501</v>
+        <v>2.99991</v>
       </c>
       <c r="B552" t="n">
-        <v>1.091303226e-12</v>
+        <v>2.93744322e-13</v>
       </c>
       <c r="C552" t="n">
-        <v>1.80170532e-14</v>
+        <v>1.254055212e-14</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>3.01551</v>
+        <v>2.99993</v>
       </c>
       <c r="B553" t="n">
-        <v>8.982766440000001e-13</v>
+        <v>2.55088062e-13</v>
       </c>
       <c r="C553" t="n">
-        <v>1.27258074e-14</v>
+        <v>7.689680099999999e-15</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>3.01607</v>
+        <v>3.00139</v>
       </c>
       <c r="B554" t="n">
-        <v>8.09684442e-13</v>
+        <v>3.5560395e-13</v>
       </c>
       <c r="C554" t="n">
-        <v>1.158779466e-14</v>
+        <v>9.2071746e-15</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>3.0165</v>
+        <v>3.00252</v>
       </c>
       <c r="B555" t="n">
-        <v>7.24900194e-13</v>
+        <v>3.91003344e-13</v>
       </c>
       <c r="C555" t="n">
-        <v>1.247985234e-14</v>
+        <v>1.049909148e-14</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>3.01703</v>
+        <v>3.00336</v>
       </c>
       <c r="B556" t="n">
-        <v>6.25031514e-13</v>
+        <v>4.27431222e-13</v>
       </c>
       <c r="C556" t="n">
-        <v>9.750685139999999e-15</v>
+        <v>1.421779806e-14</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>3.01753</v>
+        <v>3.00403</v>
       </c>
       <c r="B557" t="n">
-        <v>5.639408460000001e-13</v>
+        <v>4.22050104e-13</v>
       </c>
       <c r="C557" t="n">
-        <v>8.511169680000001e-15</v>
+        <v>8.691651000000001e-15</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>3.01809</v>
+        <v>3.00434</v>
       </c>
       <c r="B558" t="n">
-        <v>5.04772578e-13</v>
+        <v>4.4500356e-13</v>
       </c>
       <c r="C558" t="n">
-        <v>8.570443680000001e-15</v>
+        <v>1.475623026e-14</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>3.01857</v>
+        <v>3.0055</v>
       </c>
       <c r="B559" t="n">
-        <v>4.727854439999999e-13</v>
+        <v>4.91506416e-13</v>
       </c>
       <c r="C559" t="n">
-        <v>1.144694682e-14</v>
+        <v>9.78612138e-15</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>3.01898</v>
+        <v>3.00638</v>
       </c>
       <c r="B560" t="n">
-        <v>4.58079084e-13</v>
+        <v>5.33007828e-13</v>
       </c>
       <c r="C560" t="n">
-        <v>1.140881922e-14</v>
+        <v>1.042314066e-14</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>3.02004</v>
+        <v>3.00754</v>
       </c>
       <c r="B561" t="n">
-        <v>3.56526702e-13</v>
+        <v>5.978375640000001e-13</v>
       </c>
       <c r="C561" t="n">
-        <v>1.07951571e-14</v>
+        <v>1.021633848e-14</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>3.02218</v>
+        <v>3.00807</v>
       </c>
       <c r="B562" t="n">
-        <v>2.924755380000001e-13</v>
+        <v>6.20289594e-13</v>
       </c>
       <c r="C562" t="n">
-        <v>1.007430516e-14</v>
+        <v>1.141469856e-14</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>3.02586</v>
+        <v>3.00843</v>
       </c>
       <c r="B563" t="n">
-        <v>2.64485394e-13</v>
+        <v>6.7332861e-13</v>
       </c>
       <c r="C563" t="n">
-        <v>9.366589619999999e-15</v>
+        <v>1.11695445e-14</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>3.02991</v>
+        <v>3.00955</v>
       </c>
       <c r="B564" t="n">
-        <v>2.32248348e-13</v>
+        <v>8.141892660000001e-13</v>
       </c>
       <c r="C564" t="n">
-        <v>8.270325000000001e-15</v>
+        <v>1.37383515e-14</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>3.03203</v>
+        <v>3.01001</v>
       </c>
       <c r="B565" t="n">
-        <v>2.38475322e-13</v>
+        <v>8.368159140000001e-13</v>
       </c>
       <c r="C565" t="n">
-        <v>6.66028296e-15</v>
+        <v>1.052768718e-14</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>3.033</v>
+        <v>3.01047</v>
       </c>
       <c r="B566" t="n">
-        <v>2.55874644e-13</v>
+        <v>9.836071740000001e-13</v>
       </c>
       <c r="C566" t="n">
-        <v>9.267057360000001e-15</v>
+        <v>1.278653922e-14</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>3.0336</v>
+        <v>3.01128</v>
       </c>
       <c r="B567" t="n">
-        <v>3.09078666e-13</v>
+        <v>1.035817956e-12</v>
       </c>
       <c r="C567" t="n">
-        <v>9.4432293e-15</v>
+        <v>1.65682044e-14</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>3.03399</v>
+        <v>3.01174</v>
       </c>
       <c r="B568" t="n">
-        <v>3.6546426e-13</v>
+        <v>1.137814092e-12</v>
       </c>
       <c r="C568" t="n">
-        <v>8.874118800000001e-15</v>
+        <v>1.6817796e-14</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>3.03432</v>
+        <v>3.01205</v>
       </c>
       <c r="B569" t="n">
-        <v>4.85095212e-13</v>
+        <v>1.216952892e-12</v>
       </c>
       <c r="C569" t="n">
-        <v>8.26825842e-15</v>
+        <v>1.83919212e-14</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>3.03452</v>
+        <v>3.01229</v>
       </c>
       <c r="B570" t="n">
-        <v>7.04330514e-13</v>
+        <v>1.318063122e-12</v>
       </c>
       <c r="C570" t="n">
-        <v>1.296785358e-14</v>
+        <v>1.67378562e-14</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>3.03483</v>
+        <v>3.01249</v>
       </c>
       <c r="B571" t="n">
-        <v>1.225464318e-12</v>
+        <v>1.370216232e-12</v>
       </c>
       <c r="C571" t="n">
-        <v>1.9642122e-14</v>
+        <v>1.86266142e-14</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>3.03505</v>
+        <v>3.01268</v>
       </c>
       <c r="B572" t="n">
-        <v>1.6082478e-12</v>
+        <v>1.374222834e-12</v>
       </c>
       <c r="C572" t="n">
-        <v>2.267470800000001e-14</v>
+        <v>1.63096416e-14</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>3.03594</v>
+        <v>3.01299</v>
       </c>
       <c r="B573" t="n">
-        <v>7.163887680000001e-13</v>
+        <v>1.403827794e-12</v>
       </c>
       <c r="C573" t="n">
-        <v>1.457052642e-14</v>
+        <v>1.8363726e-14</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>3.03698</v>
+        <v>3.01352</v>
       </c>
       <c r="B574" t="n">
-        <v>4.119783300000001e-13</v>
+        <v>1.391822406e-12</v>
       </c>
       <c r="C574" t="n">
-        <v>1.094922144e-14</v>
+        <v>1.7905554e-14</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>3.03799</v>
+        <v>3.01388</v>
       </c>
       <c r="B575" t="n">
-        <v>3.31231122e-13</v>
+        <v>1.416073482e-12</v>
       </c>
       <c r="C575" t="n">
-        <v>1.064317536e-14</v>
+        <v>1.73863458e-14</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>3.03898</v>
+        <v>3.01436</v>
       </c>
       <c r="B576" t="n">
-        <v>3.21880248e-13</v>
+        <v>1.234137546e-12</v>
       </c>
       <c r="C576" t="n">
-        <v>1.048875858e-14</v>
+        <v>1.65100518e-14</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>3.04002</v>
+        <v>3.01441</v>
       </c>
       <c r="B577" t="n">
-        <v>3.47504238e-13</v>
+        <v>9.3576825e-13</v>
       </c>
       <c r="C577" t="n">
-        <v>8.478008279999999e-15</v>
+        <v>1.7479422e-14</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>3.04202</v>
+        <v>3.01501</v>
       </c>
       <c r="B578" t="n">
-        <v>3.39587154e-13</v>
+        <v>1.091303226e-12</v>
       </c>
       <c r="C578" t="n">
-        <v>9.799898579999999e-15</v>
+        <v>1.80170532e-14</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>3.04591</v>
+        <v>3.01551</v>
       </c>
       <c r="B579" t="n">
-        <v>2.92432284e-13</v>
+        <v>8.982766440000001e-13</v>
       </c>
       <c r="C579" t="n">
-        <v>1.004591772e-14</v>
+        <v>1.27258074e-14</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>3.05</v>
+        <v>3.01607</v>
       </c>
       <c r="B580" t="n">
-        <v>2.21910642e-13</v>
+        <v>8.09684442e-13</v>
       </c>
       <c r="C580" t="n">
-        <v>8.9906643e-15</v>
+        <v>1.158779466e-14</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>3.05401</v>
+        <v>3.0165</v>
       </c>
       <c r="B581" t="n">
-        <v>1.96046352e-13</v>
+        <v>7.24900194e-13</v>
       </c>
       <c r="C581" t="n">
-        <v>8.17633566e-15</v>
+        <v>1.247985234e-14</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>3.05801</v>
+        <v>3.01703</v>
       </c>
       <c r="B582" t="n">
-        <v>2.0165976e-13</v>
+        <v>6.25031514e-13</v>
       </c>
       <c r="C582" t="n">
-        <v>8.640579239999998e-15</v>
+        <v>9.750685139999999e-15</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>3.05997</v>
+        <v>3.01753</v>
       </c>
       <c r="B583" t="n">
-        <v>2.3633505e-13</v>
+        <v>5.639408460000001e-13</v>
       </c>
       <c r="C583" t="n">
-        <v>8.854254000000001e-15</v>
+        <v>8.511169680000001e-15</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>3.06048</v>
+        <v>3.01809</v>
       </c>
       <c r="B584" t="n">
-        <v>2.53144836e-13</v>
+        <v>5.04772578e-13</v>
       </c>
       <c r="C584" t="n">
-        <v>1.01199141e-14</v>
+        <v>8.570443680000001e-15</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>3.06096</v>
+        <v>3.01852</v>
       </c>
       <c r="B585" t="n">
-        <v>2.4090075e-13</v>
+        <v>4.1316381e-13</v>
       </c>
       <c r="C585" t="n">
-        <v>1.046548152e-14</v>
+        <v>1.197770544e-14</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>3.0613</v>
+        <v>3.01857</v>
       </c>
       <c r="B586" t="n">
-        <v>2.5897932e-13</v>
+        <v>4.727854439999999e-13</v>
       </c>
       <c r="C586" t="n">
-        <v>9.74599128e-15</v>
+        <v>1.144694682e-14</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>3.06147</v>
+        <v>3.01898</v>
       </c>
       <c r="B587" t="n">
-        <v>2.57463828e-13</v>
+        <v>4.58079084e-13</v>
       </c>
       <c r="C587" t="n">
-        <v>1.089621126e-14</v>
+        <v>1.140881922e-14</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>3.06178</v>
+        <v>3.02004</v>
       </c>
       <c r="B588" t="n">
-        <v>2.8064637e-13</v>
+        <v>3.56526702e-13</v>
       </c>
       <c r="C588" t="n">
-        <v>1.089778122e-14</v>
+        <v>1.07951571e-14</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>3.062</v>
+        <v>3.02218</v>
       </c>
       <c r="B589" t="n">
-        <v>2.64639186e-13</v>
+        <v>2.924755380000001e-13</v>
       </c>
       <c r="C589" t="n">
-        <v>1.077087078e-14</v>
+        <v>1.007430516e-14</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>3.06227</v>
+        <v>3.02247</v>
       </c>
       <c r="B590" t="n">
-        <v>2.8202409e-13</v>
+        <v>2.837142e-13</v>
       </c>
       <c r="C590" t="n">
-        <v>1.118719854e-14</v>
+        <v>8.107802099999999e-15</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>3.06258</v>
+        <v>3.02586</v>
       </c>
       <c r="B591" t="n">
-        <v>3.1963104e-13</v>
+        <v>2.64485394e-13</v>
       </c>
       <c r="C591" t="n">
-        <v>1.050421788e-14</v>
+        <v>9.366589619999999e-15</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>3.0628</v>
+        <v>3.02634</v>
       </c>
       <c r="B592" t="n">
-        <v>2.89635192e-13</v>
+        <v>2.337157799999999e-13</v>
       </c>
       <c r="C592" t="n">
-        <v>1.149109794e-14</v>
+        <v>9.61437096e-15</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>3.06312</v>
+        <v>3.02991</v>
       </c>
       <c r="B593" t="n">
-        <v>3.07644876e-13</v>
+        <v>2.32248348e-13</v>
       </c>
       <c r="C593" t="n">
-        <v>1.17046125e-14</v>
+        <v>8.270325000000001e-15</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>3.06324</v>
+        <v>3.03034</v>
       </c>
       <c r="B594" t="n">
-        <v>3.0765609e-13</v>
+        <v>2.56694868e-13</v>
       </c>
       <c r="C594" t="n">
-        <v>1.149838704e-14</v>
+        <v>9.137968200000001e-15</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>3.06353</v>
+        <v>3.03203</v>
       </c>
       <c r="B595" t="n">
-        <v>3.16577628e-13</v>
+        <v>2.38475322e-13</v>
       </c>
       <c r="C595" t="n">
-        <v>6.684104700000001e-15</v>
+        <v>6.66028296e-15</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>3.06375</v>
+        <v>3.03244</v>
       </c>
       <c r="B596" t="n">
-        <v>3.11800464e-13</v>
+        <v>2.74105404e-13</v>
       </c>
       <c r="C596" t="n">
-        <v>6.26596668e-15</v>
+        <v>9.074432880000001e-15</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>3.06404</v>
+        <v>3.033</v>
       </c>
       <c r="B597" t="n">
-        <v>3.14855478e-13</v>
+        <v>2.55874644e-13</v>
       </c>
       <c r="C597" t="n">
-        <v>6.96206772e-15</v>
+        <v>9.267057360000001e-15</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>3.06418</v>
+        <v>3.0335</v>
       </c>
       <c r="B598" t="n">
-        <v>3.17373822e-13</v>
+        <v>4.50347832e-13</v>
       </c>
       <c r="C598" t="n">
-        <v>7.08136866e-15</v>
+        <v>1.027407456e-14</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>3.06445</v>
+        <v>3.0336</v>
       </c>
       <c r="B599" t="n">
-        <v>3.01483584e-13</v>
+        <v>3.09078666e-13</v>
       </c>
       <c r="C599" t="n">
-        <v>7.55532036e-15</v>
+        <v>9.4432293e-15</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>3.06481</v>
+        <v>3.03367</v>
       </c>
       <c r="B600" t="n">
-        <v>3.13868646e-13</v>
+        <v>6.33405168e-13</v>
       </c>
       <c r="C600" t="n">
-        <v>6.8648904e-15</v>
+        <v>1.247091318e-14</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>3.06498</v>
+        <v>3.03399</v>
       </c>
       <c r="B601" t="n">
-        <v>2.774039219999999e-13</v>
+        <v>3.6546426e-13</v>
       </c>
       <c r="C601" t="n">
-        <v>6.632119799999999e-15</v>
+        <v>8.874118800000001e-15</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>3.06532</v>
+        <v>3.03401</v>
       </c>
       <c r="B602" t="n">
-        <v>2.91208356e-13</v>
+        <v>1.450556532e-12</v>
       </c>
       <c r="C602" t="n">
-        <v>6.772743360000001e-15</v>
+        <v>1.93430286e-14</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>3.06547</v>
+        <v>3.03423</v>
       </c>
       <c r="B603" t="n">
-        <v>2.81211876e-13</v>
+        <v>8.831313359999999e-13</v>
       </c>
       <c r="C603" t="n">
-        <v>6.928057260000001e-15</v>
+        <v>1.112273406e-14</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>3.06583</v>
+        <v>3.03432</v>
       </c>
       <c r="B604" t="n">
-        <v>2.733060059999999e-13</v>
+        <v>4.85095212e-13</v>
       </c>
       <c r="C604" t="n">
-        <v>6.43193388e-15</v>
+        <v>8.26825842e-15</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>3.06603</v>
+        <v>3.03444</v>
       </c>
       <c r="B605" t="n">
-        <v>2.57704128e-13</v>
+        <v>1.330134192e-12</v>
       </c>
       <c r="C605" t="n">
-        <v>6.10480548e-15</v>
+        <v>1.175650128e-14</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>3.0662</v>
+        <v>3.03452</v>
       </c>
       <c r="B606" t="n">
-        <v>2.52390294e-13</v>
+        <v>7.04330514e-13</v>
       </c>
       <c r="C606" t="n">
-        <v>7.620697980000001e-15</v>
+        <v>1.296785358e-14</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>3.06658</v>
+        <v>3.03483</v>
       </c>
       <c r="B607" t="n">
-        <v>2.42940096e-13</v>
+        <v>1.225464318e-12</v>
       </c>
       <c r="C607" t="n">
-        <v>5.96543148e-15</v>
+        <v>1.9642122e-14</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>3.06707</v>
+        <v>3.03488</v>
       </c>
       <c r="B608" t="n">
-        <v>2.46621492e-13</v>
+        <v>8.580312e-13</v>
       </c>
       <c r="C608" t="n">
-        <v>6.65179236e-15</v>
+        <v>1.243067094e-14</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>3.06758</v>
+        <v>3.03505</v>
       </c>
       <c r="B609" t="n">
-        <v>2.23240302e-13</v>
+        <v>1.6082478e-12</v>
       </c>
       <c r="C609" t="n">
-        <v>6.61630806e-15</v>
+        <v>2.267470800000001e-14</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>3.06787</v>
+        <v>3.03594</v>
       </c>
       <c r="B610" t="n">
-        <v>2.22947136e-13</v>
+        <v>7.163887680000001e-13</v>
       </c>
       <c r="C610" t="n">
-        <v>6.726814019999999e-15</v>
+        <v>1.457052642e-14</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>3.06913</v>
+        <v>3.03698</v>
       </c>
       <c r="B611" t="n">
-        <v>2.28776814e-13</v>
+        <v>4.119783300000001e-13</v>
       </c>
       <c r="C611" t="n">
-        <v>6.85366038e-15</v>
+        <v>1.094922144e-14</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>3.06998</v>
+        <v>3.03799</v>
       </c>
       <c r="B612" t="n">
-        <v>2.59160346e-13</v>
+        <v>3.31231122e-13</v>
       </c>
       <c r="C612" t="n">
-        <v>6.7480245e-15</v>
+        <v>1.064317536e-14</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>3.07095</v>
+        <v>3.03879</v>
       </c>
       <c r="B613" t="n">
-        <v>3.23256366e-13</v>
+        <v>3.28339512e-13</v>
       </c>
       <c r="C613" t="n">
-        <v>6.5955141e-15</v>
+        <v>8.003143439999999e-15</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>3.07209</v>
+        <v>3.03898</v>
       </c>
       <c r="B614" t="n">
-        <v>5.7673602e-13</v>
+        <v>3.21880248e-13</v>
       </c>
       <c r="C614" t="n">
-        <v>1.005596226e-14</v>
+        <v>1.048875858e-14</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>3.07245</v>
+        <v>3.04002</v>
       </c>
       <c r="B615" t="n">
-        <v>7.981244099999999e-13</v>
+        <v>3.47504238e-13</v>
       </c>
       <c r="C615" t="n">
-        <v>9.48121272e-15</v>
+        <v>8.478008279999999e-15</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>3.07279</v>
+        <v>3.04202</v>
       </c>
       <c r="B616" t="n">
-        <v>1.374169968e-12</v>
+        <v>3.39587154e-13</v>
       </c>
       <c r="C616" t="n">
-        <v>1.427905854e-14</v>
+        <v>9.799898579999999e-15</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>3.07309</v>
+        <v>3.04296</v>
       </c>
       <c r="B617" t="n">
-        <v>2.23922754e-12</v>
+        <v>3.4351686e-13</v>
       </c>
       <c r="C617" t="n">
-        <v>1.9501146e-14</v>
+        <v>8.265406860000001e-15</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>3.07328</v>
+        <v>3.04591</v>
       </c>
       <c r="B618" t="n">
-        <v>3.02592168e-12</v>
+        <v>2.92432284e-13</v>
       </c>
       <c r="C618" t="n">
-        <v>2.00972502e-14</v>
+        <v>1.004591772e-14</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>3.07362</v>
+        <v>3.04695</v>
       </c>
       <c r="B619" t="n">
-        <v>3.08920068e-12</v>
+        <v>2.63916684e-13</v>
       </c>
       <c r="C619" t="n">
-        <v>2.11826052e-14</v>
+        <v>8.63481204e-15</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>3.07384</v>
+        <v>3.04891</v>
       </c>
       <c r="B620" t="n">
-        <v>2.48090526e-12</v>
+        <v>2.275096319999999e-13</v>
       </c>
       <c r="C620" t="n">
-        <v>2.10938544e-14</v>
+        <v>7.979257619999999e-15</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>3.07401</v>
+        <v>3.05</v>
       </c>
       <c r="B621" t="n">
-        <v>1.980873e-12</v>
+        <v>2.21910642e-13</v>
       </c>
       <c r="C621" t="n">
-        <v>1.76087034e-14</v>
+        <v>8.9906643e-15</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>3.0743</v>
+        <v>3.0529</v>
       </c>
       <c r="B622" t="n">
-        <v>1.309646214e-12</v>
+        <v>1.8974889e-13</v>
       </c>
       <c r="C622" t="n">
-        <v>1.574322246e-14</v>
+        <v>7.77633228e-15</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>3.07452</v>
+        <v>3.05401</v>
       </c>
       <c r="B623" t="n">
-        <v>1.048231854e-12</v>
+        <v>1.96046352e-13</v>
       </c>
       <c r="C623" t="n">
-        <v>1.364080572e-14</v>
+        <v>8.17633566e-15</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>3.07505</v>
+        <v>3.05694</v>
       </c>
       <c r="B624" t="n">
-        <v>6.4458072e-13</v>
+        <v>2.18254878e-13</v>
       </c>
       <c r="C624" t="n">
-        <v>1.07014401e-14</v>
+        <v>8.642309400000001e-15</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>3.07537</v>
+        <v>3.05801</v>
       </c>
       <c r="B625" t="n">
-        <v>5.23139508e-13</v>
+        <v>2.0165976e-13</v>
       </c>
       <c r="C625" t="n">
-        <v>1.06203789e-14</v>
+        <v>8.640579239999998e-15</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>3.07593</v>
+        <v>3.05997</v>
       </c>
       <c r="B626" t="n">
-        <v>4.33706256e-13</v>
+        <v>2.3633505e-13</v>
       </c>
       <c r="C626" t="n">
-        <v>9.668582639999999e-15</v>
+        <v>8.854254000000001e-15</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>3.07644</v>
+        <v>3.06048</v>
       </c>
       <c r="B627" t="n">
-        <v>3.72439368e-13</v>
+        <v>2.53144836e-13</v>
       </c>
       <c r="C627" t="n">
-        <v>8.918846639999999e-15</v>
+        <v>1.01199141e-14</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>3.07697</v>
+        <v>3.06094</v>
       </c>
       <c r="B628" t="n">
-        <v>3.5469882e-13</v>
+        <v>2.74908006e-13</v>
       </c>
       <c r="C628" t="n">
-        <v>9.204403139999999e-15</v>
+        <v>7.84294344e-15</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>3.07801</v>
+        <v>3.06096</v>
       </c>
       <c r="B629" t="n">
-        <v>3.04839774e-13</v>
+        <v>2.4090075e-13</v>
       </c>
       <c r="C629" t="n">
-        <v>7.436836439999999e-15</v>
+        <v>1.046548152e-14</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>3.08001</v>
+        <v>3.0613</v>
       </c>
       <c r="B630" t="n">
-        <v>2.72753316e-13</v>
+        <v>2.5897932e-13</v>
       </c>
       <c r="C630" t="n">
-        <v>9.921618539999999e-15</v>
+        <v>9.74599128e-15</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>3.08205</v>
+        <v>3.06147</v>
       </c>
       <c r="B631" t="n">
-        <v>2.620071e-13</v>
+        <v>2.57463828e-13</v>
       </c>
       <c r="C631" t="n">
-        <v>8.24272254e-15</v>
+        <v>1.089621126e-14</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>3.0829</v>
+        <v>3.06178</v>
       </c>
       <c r="B632" t="n">
-        <v>2.6126217e-13</v>
+        <v>2.8064637e-13</v>
       </c>
       <c r="C632" t="n">
-        <v>7.69318848e-15</v>
+        <v>1.089778122e-14</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>3.08356</v>
+        <v>3.062</v>
       </c>
       <c r="B633" t="n">
-        <v>2.65449798e-13</v>
+        <v>2.64639186e-13</v>
       </c>
       <c r="C633" t="n">
-        <v>8.0687934e-15</v>
+        <v>1.077087078e-14</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>3.08506</v>
+        <v>3.06227</v>
       </c>
       <c r="B634" t="n">
-        <v>2.5679259e-13</v>
+        <v>2.8202409e-13</v>
       </c>
       <c r="C634" t="n">
-        <v>8.114738760000002e-15</v>
+        <v>1.118719854e-14</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>3.08604</v>
+        <v>3.06258</v>
       </c>
       <c r="B635" t="n">
-        <v>2.54689164e-13</v>
+        <v>3.1963104e-13</v>
       </c>
       <c r="C635" t="n">
-        <v>8.91126918e-15</v>
+        <v>1.050421788e-14</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>3.08798</v>
+        <v>3.0628</v>
       </c>
       <c r="B636" t="n">
-        <v>2.52372672e-13</v>
+        <v>2.89635192e-13</v>
       </c>
       <c r="C636" t="n">
-        <v>7.566117840000001e-15</v>
+        <v>1.149109794e-14</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>3.08898</v>
+        <v>3.06292</v>
       </c>
       <c r="B637" t="n">
-        <v>2.64929148e-13</v>
+        <v>3.0565359e-13</v>
       </c>
       <c r="C637" t="n">
-        <v>7.37323704e-15</v>
+        <v>7.844577480000001e-15</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>3.08998</v>
+        <v>3.06312</v>
       </c>
       <c r="B638" t="n">
-        <v>2.74661298e-13</v>
+        <v>3.07644876e-13</v>
       </c>
       <c r="C638" t="n">
-        <v>7.286216399999999e-15</v>
+        <v>1.17046125e-14</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>3.09102</v>
+        <v>3.06324</v>
       </c>
       <c r="B639" t="n">
-        <v>2.780415180000001e-13</v>
+        <v>3.0765609e-13</v>
       </c>
       <c r="C639" t="n">
-        <v>7.4860659e-15</v>
+        <v>1.149838704e-14</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>3.09197</v>
+        <v>3.06353</v>
       </c>
       <c r="B640" t="n">
-        <v>2.843982540000001e-13</v>
+        <v>3.16577628e-13</v>
       </c>
       <c r="C640" t="n">
-        <v>8.3121372e-15</v>
+        <v>6.684104700000001e-15</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>3.09305</v>
+        <v>3.06375</v>
       </c>
       <c r="B641" t="n">
-        <v>3.00291696e-13</v>
+        <v>3.11800464e-13</v>
       </c>
       <c r="C641" t="n">
-        <v>7.96769118e-15</v>
+        <v>6.26596668e-15</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>3.09412</v>
+        <v>3.06389</v>
       </c>
       <c r="B642" t="n">
-        <v>2.95130052e-13</v>
+        <v>2.97396882e-13</v>
       </c>
       <c r="C642" t="n">
-        <v>8.13120732e-15</v>
+        <v>9.227023380000002e-15</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>3.09509</v>
+        <v>3.06404</v>
       </c>
       <c r="B643" t="n">
-        <v>2.89447758e-13</v>
+        <v>3.14855478e-13</v>
       </c>
       <c r="C643" t="n">
-        <v>8.257957559999999e-15</v>
+        <v>6.96206772e-15</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>3.09597</v>
+        <v>3.06418</v>
       </c>
       <c r="B644" t="n">
-        <v>3.08327328e-13</v>
+        <v>3.17373822e-13</v>
       </c>
       <c r="C644" t="n">
-        <v>1.052344188e-14</v>
+        <v>7.08136866e-15</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>3.09799</v>
+        <v>3.06445</v>
       </c>
       <c r="B645" t="n">
-        <v>3.1990338e-13</v>
+        <v>3.01483584e-13</v>
       </c>
       <c r="C645" t="n">
-        <v>8.5429854e-15</v>
+        <v>7.55532036e-15</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>3.0996</v>
+        <v>3.06455</v>
       </c>
       <c r="B646" t="n">
-        <v>3.31924788e-13</v>
+        <v>2.63541816e-13</v>
       </c>
       <c r="C646" t="n">
-        <v>1.019363814e-14</v>
+        <v>9.64343124e-15</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>3.09994</v>
+        <v>3.06481</v>
       </c>
       <c r="B647" t="n">
-        <v>3.57273234e-13</v>
+        <v>3.13868646e-13</v>
       </c>
       <c r="C647" t="n">
-        <v>8.1484128e-15</v>
+        <v>6.8648904e-15</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>3.10065</v>
+        <v>3.06486</v>
       </c>
       <c r="B648" t="n">
-        <v>4.18753188e-13</v>
+        <v>2.64325194e-13</v>
       </c>
       <c r="C648" t="n">
-        <v>1.006430868e-14</v>
+        <v>1.022681556e-14</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>3.10126</v>
+        <v>3.06498</v>
       </c>
       <c r="B649" t="n">
-        <v>5.3473959e-13</v>
+        <v>2.774039219999999e-13</v>
       </c>
       <c r="C649" t="n">
-        <v>1.060576866e-14</v>
+        <v>6.632119799999999e-15</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>3.10145</v>
+        <v>3.06532</v>
       </c>
       <c r="B650" t="n">
-        <v>6.33672702e-13</v>
+        <v>2.91208356e-13</v>
       </c>
       <c r="C650" t="n">
-        <v>1.269190908e-14</v>
+        <v>6.772743360000001e-15</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>3.10175</v>
+        <v>3.06547</v>
       </c>
       <c r="B651" t="n">
-        <v>7.98055524e-13</v>
+        <v>2.81211876e-13</v>
       </c>
       <c r="C651" t="n">
-        <v>1.201073868e-14</v>
+        <v>6.928057260000001e-15</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>3.10211</v>
+        <v>3.06583</v>
       </c>
       <c r="B652" t="n">
-        <v>1.103760378e-12</v>
+        <v>2.733060059999999e-13</v>
       </c>
       <c r="C652" t="n">
-        <v>1.550990718e-14</v>
+        <v>6.43193388e-15</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>3.10231</v>
+        <v>3.06603</v>
       </c>
       <c r="B653" t="n">
-        <v>1.304345196e-12</v>
+        <v>2.57704128e-13</v>
       </c>
       <c r="C653" t="n">
-        <v>1.68813954e-14</v>
+        <v>6.10480548e-15</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>3.10248</v>
+        <v>3.0662</v>
       </c>
       <c r="B654" t="n">
-        <v>1.370754504e-12</v>
+        <v>2.52390294e-13</v>
       </c>
       <c r="C654" t="n">
-        <v>1.76410638e-14</v>
+        <v>7.620697980000001e-15</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>3.10267</v>
+        <v>3.06658</v>
       </c>
       <c r="B655" t="n">
-        <v>1.305372078e-12</v>
+        <v>2.42940096e-13</v>
       </c>
       <c r="C655" t="n">
-        <v>1.82033658e-14</v>
+        <v>5.96543148e-15</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>3.10301</v>
+        <v>3.06707</v>
       </c>
       <c r="B656" t="n">
-        <v>1.082162214e-12</v>
+        <v>2.46621492e-13</v>
       </c>
       <c r="C656" t="n">
-        <v>1.67876784e-14</v>
+        <v>6.65179236e-15</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>3.10353</v>
+        <v>3.06758</v>
       </c>
       <c r="B657" t="n">
-        <v>7.5607191e-13</v>
+        <v>2.23240302e-13</v>
       </c>
       <c r="C657" t="n">
-        <v>1.22347143e-14</v>
+        <v>6.61630806e-15</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>3.10401</v>
+        <v>3.06787</v>
       </c>
       <c r="B658" t="n">
-        <v>5.548446900000001e-13</v>
+        <v>2.22947136e-13</v>
       </c>
       <c r="C658" t="n">
-        <v>1.11549663e-14</v>
+        <v>6.726814019999999e-15</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>3.10453</v>
+        <v>3.06913</v>
       </c>
       <c r="B659" t="n">
-        <v>4.41378234e-13</v>
+        <v>2.28776814e-13</v>
       </c>
       <c r="C659" t="n">
-        <v>1.021308642e-14</v>
+        <v>6.85366038e-15</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>3.10506</v>
+        <v>3.06998</v>
       </c>
       <c r="B660" t="n">
-        <v>4.24831176e-13</v>
+        <v>2.59160346e-13</v>
       </c>
       <c r="C660" t="n">
-        <v>8.47134396e-15</v>
+        <v>6.7480245e-15</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>3.10538</v>
+        <v>3.07042</v>
       </c>
       <c r="B661" t="n">
-        <v>3.73003272e-13</v>
+        <v>3.56784624e-13</v>
       </c>
       <c r="C661" t="n">
-        <v>8.573807880000001e-15</v>
+        <v>9.3717801e-15</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>3.10592</v>
+        <v>3.07095</v>
       </c>
       <c r="B662" t="n">
-        <v>3.70561824e-13</v>
+        <v>3.23256366e-13</v>
       </c>
       <c r="C662" t="n">
-        <v>8.99128908e-15</v>
+        <v>6.5955141e-15</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>3.10658</v>
+        <v>3.07097</v>
       </c>
       <c r="B663" t="n">
-        <v>3.56770206e-13</v>
+        <v>4.7133243e-13</v>
       </c>
       <c r="C663" t="n">
-        <v>9.70217658e-15</v>
+        <v>1.077594912e-14</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>3.10709</v>
+        <v>3.07192</v>
       </c>
       <c r="B664" t="n">
-        <v>3.52611414e-13</v>
+        <v>1.211369922e-12</v>
       </c>
       <c r="C664" t="n">
-        <v>1.028624976e-14</v>
+        <v>2.66329296e-14</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>3.10745</v>
+        <v>3.07204</v>
       </c>
       <c r="B665" t="n">
-        <v>3.33613296e-13</v>
+        <v>1.79393562e-12</v>
       </c>
       <c r="C665" t="n">
-        <v>1.037437578e-14</v>
+        <v>2.66958882e-14</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>3.10784</v>
+        <v>3.07209</v>
       </c>
       <c r="B666" t="n">
-        <v>3.32549568e-13</v>
+        <v>5.7673602e-13</v>
       </c>
       <c r="C666" t="n">
-        <v>1.061672634e-14</v>
+        <v>1.005596226e-14</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>3.112</v>
+        <v>3.07241</v>
       </c>
       <c r="B667" t="n">
-        <v>3.4901973e-13</v>
+        <v>2.85409116e-12</v>
       </c>
       <c r="C667" t="n">
-        <v>1.109327328e-14</v>
+        <v>4.61194974e-14</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>3.11559</v>
+        <v>3.07245</v>
       </c>
       <c r="B668" t="n">
-        <v>3.63809394e-13</v>
+        <v>7.981244099999999e-13</v>
       </c>
       <c r="C668" t="n">
-        <v>1.09743408e-14</v>
+        <v>9.48121272e-15</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>3.12001</v>
+        <v>3.0726</v>
       </c>
       <c r="B669" t="n">
-        <v>3.94654302e-13</v>
+        <v>3.20890212e-12</v>
       </c>
       <c r="C669" t="n">
-        <v>1.029555738e-14</v>
+        <v>2.97701262e-14</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>3.124</v>
+        <v>3.07279</v>
       </c>
       <c r="B670" t="n">
-        <v>4.4328141e-13</v>
+        <v>1.374169968e-12</v>
       </c>
       <c r="C670" t="n">
-        <v>1.116901584e-14</v>
+        <v>1.427905854e-14</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>3.1349</v>
+        <v>3.07292</v>
       </c>
       <c r="B671" t="n">
-        <v>3.3640398e-13</v>
+        <v>2.74595616e-12</v>
       </c>
       <c r="C671" t="n">
-        <v>7.78049748e-15</v>
+        <v>2.64985218e-14</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>3.13895</v>
+        <v>3.07309</v>
       </c>
       <c r="B672" t="n">
-        <v>3.06948006e-13</v>
+        <v>2.22889464e-12</v>
       </c>
       <c r="C672" t="n">
-        <v>7.708039019999999e-15</v>
+        <v>2.45128428e-14</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>3.14273</v>
+        <v>3.07309</v>
       </c>
       <c r="B673" t="n">
-        <v>2.64118536e-13</v>
+        <v>2.23922754e-12</v>
       </c>
       <c r="C673" t="n">
-        <v>7.34927112e-15</v>
+        <v>1.9501146e-14</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>3.14764</v>
+        <v>3.07328</v>
       </c>
       <c r="B674" t="n">
-        <v>1.98556686e-13</v>
+        <v>3.02592168e-12</v>
       </c>
       <c r="C674" t="n">
-        <v>8.724524039999999e-15</v>
+        <v>2.00972502e-14</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>3.15204</v>
+        <v>3.0734</v>
       </c>
       <c r="B675" t="n">
-        <v>1.90945584e-13</v>
+        <v>1.900773e-12</v>
       </c>
       <c r="C675" t="n">
-        <v>8.012643299999999e-15</v>
+        <v>2.53878552e-14</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>3.157</v>
+        <v>3.07362</v>
       </c>
       <c r="B676" t="n">
-        <v>1.89345186e-13</v>
+        <v>3.08920068e-12</v>
       </c>
       <c r="C676" t="n">
-        <v>7.04458674e-15</v>
+        <v>2.11826052e-14</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>3.15782</v>
+        <v>3.07374</v>
       </c>
       <c r="B677" t="n">
-        <v>1.74943206e-13</v>
+        <v>1.454036076e-12</v>
       </c>
       <c r="C677" t="n">
-        <v>7.37403804e-15</v>
+        <v>2.1829653e-14</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>3.15836</v>
+        <v>3.07384</v>
       </c>
       <c r="B678" t="n">
-        <v>1.74550716e-13</v>
+        <v>2.48090526e-12</v>
       </c>
       <c r="C678" t="n">
-        <v>5.587727939999999e-15</v>
+        <v>2.10938544e-14</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>3.15887</v>
+        <v>3.07398</v>
       </c>
       <c r="B679" t="n">
-        <v>1.91637648e-13</v>
+        <v>1.011868056e-12</v>
       </c>
       <c r="C679" t="n">
-        <v>7.39500822e-15</v>
+        <v>1.354476582e-14</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>3.15981</v>
+        <v>3.07401</v>
       </c>
       <c r="B680" t="n">
-        <v>2.41604028e-13</v>
+        <v>1.980873e-12</v>
       </c>
       <c r="C680" t="n">
-        <v>9.5057874e-15</v>
+        <v>1.76087034e-14</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>3.16087</v>
+        <v>3.0743</v>
       </c>
       <c r="B681" t="n">
-        <v>6.655508999999999e-13</v>
+        <v>1.309646214e-12</v>
       </c>
       <c r="C681" t="n">
-        <v>1.126973358e-14</v>
+        <v>1.574322246e-14</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>3.16166</v>
+        <v>3.07452</v>
       </c>
       <c r="B682" t="n">
-        <v>2.7623286e-13</v>
+        <v>1.048231854e-12</v>
       </c>
       <c r="C682" t="n">
-        <v>5.50610604e-15</v>
+        <v>1.364080572e-14</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>3.16249</v>
+        <v>3.07452</v>
       </c>
       <c r="B683" t="n">
-        <v>2.25335718e-13</v>
+        <v>6.1740279e-13</v>
       </c>
       <c r="C683" t="n">
-        <v>7.189375499999999e-15</v>
+        <v>1.34713782e-14</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>3.16316</v>
+        <v>3.07491</v>
       </c>
       <c r="B684" t="n">
-        <v>2.15086122e-13</v>
+        <v>5.19347574e-13</v>
       </c>
       <c r="C684" t="n">
-        <v>6.2531667e-15</v>
+        <v>1.242820386e-14</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>3.16392</v>
+        <v>3.07505</v>
       </c>
       <c r="B685" t="n">
-        <v>2.004903e-13</v>
+        <v>6.4458072e-13</v>
       </c>
       <c r="C685" t="n">
-        <v>5.2857189e-15</v>
+        <v>1.07014401e-14</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>3.16525</v>
+        <v>3.07537</v>
       </c>
       <c r="B686" t="n">
-        <v>2.17872e-13</v>
+        <v>5.23139508e-13</v>
       </c>
       <c r="C686" t="n">
-        <v>5.22410598e-15</v>
+        <v>1.06203789e-14</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>3.16661</v>
+        <v>3.0759</v>
       </c>
       <c r="B687" t="n">
-        <v>2.26683e-13</v>
+        <v>3.64480632e-13</v>
       </c>
       <c r="C687" t="n">
-        <v>7.26484572e-15</v>
+        <v>9.49407678e-15</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>3.16764</v>
+        <v>3.07593</v>
       </c>
       <c r="B688" t="n">
-        <v>2.29776462e-13</v>
+        <v>4.33706256e-13</v>
       </c>
       <c r="C688" t="n">
-        <v>6.97844016e-15</v>
+        <v>9.668582639999999e-15</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>3.1689</v>
+        <v>3.07644</v>
       </c>
       <c r="B689" t="n">
-        <v>2.53833696e-13</v>
+        <v>3.72439368e-13</v>
       </c>
       <c r="C689" t="n">
-        <v>7.1287398e-15</v>
+        <v>8.918846639999999e-15</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>3.17043</v>
+        <v>3.07697</v>
       </c>
       <c r="B690" t="n">
-        <v>3.0868137e-13</v>
+        <v>3.5469882e-13</v>
       </c>
       <c r="C690" t="n">
-        <v>8.04513186e-15</v>
+        <v>9.204403139999999e-15</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>3.17279</v>
+        <v>3.07784</v>
       </c>
       <c r="B691" t="n">
-        <v>4.22718138e-13</v>
+        <v>2.80218636e-13</v>
       </c>
       <c r="C691" t="n">
-        <v>1.106448534e-14</v>
+        <v>9.0102087e-15</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>3.17383</v>
+        <v>3.07801</v>
       </c>
       <c r="B692" t="n">
-        <v>5.13037296e-13</v>
+        <v>3.04839774e-13</v>
       </c>
       <c r="C692" t="n">
-        <v>9.080135999999998e-15</v>
+        <v>7.436836439999999e-15</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>3.17484</v>
+        <v>3.08001</v>
       </c>
       <c r="B693" t="n">
-        <v>6.248809260000003e-13</v>
+        <v>2.72753316e-13</v>
       </c>
       <c r="C693" t="n">
-        <v>1.223972856e-14</v>
+        <v>9.921618539999999e-15</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>3.17728</v>
+        <v>3.0819</v>
       </c>
       <c r="B694" t="n">
-        <v>7.06091112e-13</v>
+        <v>2.5267545e-13</v>
       </c>
       <c r="C694" t="n">
-        <v>1.163048796e-14</v>
+        <v>1.037913372e-14</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>3.17815</v>
+        <v>3.08205</v>
       </c>
       <c r="B695" t="n">
-        <v>6.73314192e-13</v>
+        <v>2.620071e-13</v>
       </c>
       <c r="C695" t="n">
-        <v>1.47475314e-14</v>
+        <v>8.24272254e-15</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.0829</v>
       </c>
       <c r="B696" t="n">
-        <v>2.65488246e-13</v>
+        <v>2.6126217e-13</v>
       </c>
       <c r="C696" t="n">
-        <v>6.149885759999999e-15</v>
+        <v>7.69318848e-15</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.08356</v>
       </c>
       <c r="B697" t="n">
-        <v>3.57249204e-13</v>
+        <v>2.65449798e-13</v>
       </c>
       <c r="C697" t="n">
-        <v>9.60597648e-15</v>
+        <v>8.0687934e-15</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>3.18983</v>
+        <v>3.08506</v>
       </c>
       <c r="B698" t="n">
-        <v>1.7906355e-13</v>
+        <v>2.5679259e-13</v>
       </c>
       <c r="C698" t="n">
-        <v>3.34752318e-15</v>
+        <v>8.114738760000002e-15</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>3.19196</v>
+        <v>3.08579</v>
       </c>
       <c r="B699" t="n">
-        <v>1.6299549e-13</v>
+        <v>2.53454022e-13</v>
       </c>
       <c r="C699" t="n">
-        <v>4.7468862e-15</v>
+        <v>7.843760460000001e-15</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>3.19392</v>
+        <v>3.08604</v>
       </c>
       <c r="B700" t="n">
-        <v>1.197219456e-13</v>
+        <v>2.54689164e-13</v>
       </c>
       <c r="C700" t="n">
-        <v>7.81378704e-15</v>
+        <v>8.91126918e-15</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>3.19493</v>
+        <v>3.08798</v>
       </c>
       <c r="B701" t="n">
-        <v>9.28705032e-14</v>
+        <v>2.52372672e-13</v>
       </c>
       <c r="C701" t="n">
-        <v>9.23335128e-15</v>
+        <v>7.566117840000001e-15</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>3.1959</v>
+        <v>3.08898</v>
       </c>
       <c r="B702" t="n">
-        <v>1.101934098e-13</v>
+        <v>2.64929148e-13</v>
       </c>
       <c r="C702" t="n">
-        <v>7.81276176e-15</v>
+        <v>7.37323704e-15</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>3.19699</v>
+        <v>3.08959</v>
       </c>
       <c r="B703" t="n">
-        <v>1.01858364e-13</v>
+        <v>2.678736240000001e-13</v>
       </c>
       <c r="C703" t="n">
-        <v>7.86372138e-15</v>
+        <v>7.37575218e-15</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>3.1976</v>
+        <v>3.08998</v>
       </c>
       <c r="B704" t="n">
-        <v>1.14924276e-13</v>
+        <v>2.74661298e-13</v>
       </c>
       <c r="C704" t="n">
-        <v>5.85753678e-15</v>
+        <v>7.286216399999999e-15</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
+        <v>3.09102</v>
+      </c>
+      <c r="B705" t="n">
+        <v>2.780415180000001e-13</v>
+      </c>
+      <c r="C705" t="n">
+        <v>7.4860659e-15</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>3.09197</v>
+      </c>
+      <c r="B706" t="n">
+        <v>2.843982540000001e-13</v>
+      </c>
+      <c r="C706" t="n">
+        <v>8.3121372e-15</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>3.09305</v>
+      </c>
+      <c r="B707" t="n">
+        <v>3.00291696e-13</v>
+      </c>
+      <c r="C707" t="n">
+        <v>7.96769118e-15</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>3.0937</v>
+      </c>
+      <c r="B708" t="n">
+        <v>3.022974e-13</v>
+      </c>
+      <c r="C708" t="n">
+        <v>8.142277140000001e-15</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>3.09412</v>
+      </c>
+      <c r="B709" t="n">
+        <v>2.95130052e-13</v>
+      </c>
+      <c r="C709" t="n">
+        <v>8.13120732e-15</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>3.09509</v>
+      </c>
+      <c r="B710" t="n">
+        <v>2.89447758e-13</v>
+      </c>
+      <c r="C710" t="n">
+        <v>8.257957559999999e-15</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>3.09597</v>
+      </c>
+      <c r="B711" t="n">
+        <v>3.08327328e-13</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1.052344188e-14</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>3.09784</v>
+      </c>
+      <c r="B712" t="n">
+        <v>3.14949996e-13</v>
+      </c>
+      <c r="C712" t="n">
+        <v>8.622652859999999e-15</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>3.09799</v>
+      </c>
+      <c r="B713" t="n">
+        <v>3.1990338e-13</v>
+      </c>
+      <c r="C713" t="n">
+        <v>8.5429854e-15</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>3.09899</v>
+      </c>
+      <c r="B714" t="n">
+        <v>3.57132258e-13</v>
+      </c>
+      <c r="C714" t="n">
+        <v>7.291695240000001e-15</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>3.09945</v>
+      </c>
+      <c r="B715" t="n">
+        <v>4.10450022e-13</v>
+      </c>
+      <c r="C715" t="n">
+        <v>8.11465866e-15</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>3.0996</v>
+      </c>
+      <c r="B716" t="n">
+        <v>3.31924788e-13</v>
+      </c>
+      <c r="C716" t="n">
+        <v>1.019363814e-14</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>3.09994</v>
+      </c>
+      <c r="B717" t="n">
+        <v>3.57273234e-13</v>
+      </c>
+      <c r="C717" t="n">
+        <v>8.1484128e-15</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>3.09997</v>
+      </c>
+      <c r="B718" t="n">
+        <v>4.24055808e-13</v>
+      </c>
+      <c r="C718" t="n">
+        <v>1.065560688e-14</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>3.1005</v>
+      </c>
+      <c r="B719" t="n">
+        <v>6.58457244e-13</v>
+      </c>
+      <c r="C719" t="n">
+        <v>2.04881382e-14</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>3.10065</v>
+      </c>
+      <c r="B720" t="n">
+        <v>4.18753188e-13</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1.006430868e-14</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>3.1007</v>
+      </c>
+      <c r="B721" t="n">
+        <v>7.2021114e-13</v>
+      </c>
+      <c r="C721" t="n">
+        <v>1.206214686e-14</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>3.10126</v>
+      </c>
+      <c r="B722" t="n">
+        <v>5.3473959e-13</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1.060576866e-14</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>3.10145</v>
+      </c>
+      <c r="B723" t="n">
+        <v>6.33672702e-13</v>
+      </c>
+      <c r="C723" t="n">
+        <v>1.269190908e-14</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>3.10175</v>
+      </c>
+      <c r="B724" t="n">
+        <v>7.98055524e-13</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1.201073868e-14</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>3.10211</v>
+      </c>
+      <c r="B725" t="n">
+        <v>1.103760378e-12</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1.550990718e-14</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>3.10231</v>
+      </c>
+      <c r="B726" t="n">
+        <v>1.304345196e-12</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1.68813954e-14</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>3.10248</v>
+      </c>
+      <c r="B727" t="n">
+        <v>1.370754504e-12</v>
+      </c>
+      <c r="C727" t="n">
+        <v>1.76410638e-14</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>3.10267</v>
+      </c>
+      <c r="B728" t="n">
+        <v>1.305372078e-12</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1.82033658e-14</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>3.10301</v>
+      </c>
+      <c r="B729" t="n">
+        <v>1.082162214e-12</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1.67876784e-14</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>3.10353</v>
+      </c>
+      <c r="B730" t="n">
+        <v>7.5607191e-13</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1.22347143e-14</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>3.10401</v>
+      </c>
+      <c r="B731" t="n">
+        <v>5.548446900000001e-13</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1.11549663e-14</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>3.10453</v>
+      </c>
+      <c r="B732" t="n">
+        <v>4.41378234e-13</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1.021308642e-14</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>3.10489</v>
+      </c>
+      <c r="B733" t="n">
+        <v>3.90956886e-13</v>
+      </c>
+      <c r="C733" t="n">
+        <v>9.241425360000001e-15</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>3.10506</v>
+      </c>
+      <c r="B734" t="n">
+        <v>4.24831176e-13</v>
+      </c>
+      <c r="C734" t="n">
+        <v>8.47134396e-15</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>3.10538</v>
+      </c>
+      <c r="B735" t="n">
+        <v>3.73003272e-13</v>
+      </c>
+      <c r="C735" t="n">
+        <v>8.573807880000001e-15</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>3.10592</v>
+      </c>
+      <c r="B736" t="n">
+        <v>3.70561824e-13</v>
+      </c>
+      <c r="C736" t="n">
+        <v>8.99128908e-15</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>3.10658</v>
+      </c>
+      <c r="B737" t="n">
+        <v>3.56770206e-13</v>
+      </c>
+      <c r="C737" t="n">
+        <v>9.70217658e-15</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>3.10709</v>
+      </c>
+      <c r="B738" t="n">
+        <v>3.52611414e-13</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1.028624976e-14</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>3.10745</v>
+      </c>
+      <c r="B739" t="n">
+        <v>3.33613296e-13</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1.037437578e-14</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>3.10784</v>
+      </c>
+      <c r="B740" t="n">
+        <v>3.32549568e-13</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1.061672634e-14</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>3.10882</v>
+      </c>
+      <c r="B741" t="n">
+        <v>3.57595236e-13</v>
+      </c>
+      <c r="C741" t="n">
+        <v>8.9889822e-15</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="B742" t="n">
+        <v>3.4901973e-13</v>
+      </c>
+      <c r="C742" t="n">
+        <v>1.109327328e-14</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>3.11278</v>
+      </c>
+      <c r="B743" t="n">
+        <v>3.70629108e-13</v>
+      </c>
+      <c r="C743" t="n">
+        <v>9.25052472e-15</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>3.11559</v>
+      </c>
+      <c r="B744" t="n">
+        <v>3.63809394e-13</v>
+      </c>
+      <c r="C744" t="n">
+        <v>1.09743408e-14</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>3.11669</v>
+      </c>
+      <c r="B745" t="n">
+        <v>4.0389624e-13</v>
+      </c>
+      <c r="C745" t="n">
+        <v>9.8823375e-15</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>3.12001</v>
+      </c>
+      <c r="B746" t="n">
+        <v>3.94654302e-13</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1.029555738e-14</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>3.12075</v>
+      </c>
+      <c r="B747" t="n">
+        <v>4.34885328e-13</v>
+      </c>
+      <c r="C747" t="n">
+        <v>8.782404300000001e-15</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="B748" t="n">
+        <v>4.4328141e-13</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1.116901584e-14</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>3.12473</v>
+      </c>
+      <c r="B749" t="n">
+        <v>4.48048962e-13</v>
+      </c>
+      <c r="C749" t="n">
+        <v>1.10535597e-14</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>3.12789</v>
+      </c>
+      <c r="B750" t="n">
+        <v>4.033836e-13</v>
+      </c>
+      <c r="C750" t="n">
+        <v>9.595611539999999e-15</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>3.12882</v>
+      </c>
+      <c r="B751" t="n">
+        <v>3.82546386e-13</v>
+      </c>
+      <c r="C751" t="n">
+        <v>9.354943080000001e-15</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>3.13272</v>
+      </c>
+      <c r="B752" t="n">
+        <v>3.36456846e-13</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1.206165024e-14</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>3.1349</v>
+      </c>
+      <c r="B753" t="n">
+        <v>3.3640398e-13</v>
+      </c>
+      <c r="C753" t="n">
+        <v>7.78049748e-15</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>3.13676</v>
+      </c>
+      <c r="B754" t="n">
+        <v>3.1651515e-13</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1.043119872e-14</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>3.13895</v>
+      </c>
+      <c r="B755" t="n">
+        <v>3.06948006e-13</v>
+      </c>
+      <c r="C755" t="n">
+        <v>7.708039019999999e-15</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>3.14093</v>
+      </c>
+      <c r="B756" t="n">
+        <v>2.6263989e-13</v>
+      </c>
+      <c r="C756" t="n">
+        <v>9.50213484e-15</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>3.14273</v>
+      </c>
+      <c r="B757" t="n">
+        <v>2.64118536e-13</v>
+      </c>
+      <c r="C757" t="n">
+        <v>7.34927112e-15</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>3.14278</v>
+      </c>
+      <c r="B758" t="n">
+        <v>2.6451423e-13</v>
+      </c>
+      <c r="C758" t="n">
+        <v>7.24009482e-15</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>3.1468</v>
+      </c>
+      <c r="B759" t="n">
+        <v>2.25747432e-13</v>
+      </c>
+      <c r="C759" t="n">
+        <v>9.02329704e-15</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>3.14764</v>
+      </c>
+      <c r="B760" t="n">
+        <v>1.98556686e-13</v>
+      </c>
+      <c r="C760" t="n">
+        <v>8.724524039999999e-15</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>3.15086</v>
+      </c>
+      <c r="B761" t="n">
+        <v>1.99340064e-13</v>
+      </c>
+      <c r="C761" t="n">
+        <v>8.954891639999999e-15</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>3.15204</v>
+      </c>
+      <c r="B762" t="n">
+        <v>1.90945584e-13</v>
+      </c>
+      <c r="C762" t="n">
+        <v>8.012643299999999e-15</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>3.1529</v>
+      </c>
+      <c r="B763" t="n">
+        <v>1.97701218e-13</v>
+      </c>
+      <c r="C763" t="n">
+        <v>8.500708619999999e-15</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>3.15511</v>
+      </c>
+      <c r="B764" t="n">
+        <v>1.7638821e-13</v>
+      </c>
+      <c r="C764" t="n">
+        <v>9.326811960000001e-15</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>3.15609</v>
+      </c>
+      <c r="B765" t="n">
+        <v>2.22272694e-13</v>
+      </c>
+      <c r="C765" t="n">
+        <v>1.272511854e-14</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B766" t="n">
+        <v>2.0174787e-13</v>
+      </c>
+      <c r="C766" t="n">
+        <v>6.07946184e-15</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B767" t="n">
+        <v>1.89345186e-13</v>
+      </c>
+      <c r="C767" t="n">
+        <v>7.04458674e-15</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>3.15782</v>
+      </c>
+      <c r="B768" t="n">
+        <v>1.74943206e-13</v>
+      </c>
+      <c r="C768" t="n">
+        <v>7.37403804e-15</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>3.15821</v>
+      </c>
+      <c r="B769" t="n">
+        <v>1.9057392e-13</v>
+      </c>
+      <c r="C769" t="n">
+        <v>1.190250756e-14</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>3.15836</v>
+      </c>
+      <c r="B770" t="n">
+        <v>1.74550716e-13</v>
+      </c>
+      <c r="C770" t="n">
+        <v>5.587727939999999e-15</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>3.15887</v>
+      </c>
+      <c r="B771" t="n">
+        <v>1.91637648e-13</v>
+      </c>
+      <c r="C771" t="n">
+        <v>7.39500822e-15</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>3.15905</v>
+      </c>
+      <c r="B772" t="n">
+        <v>2.36653848e-13</v>
+      </c>
+      <c r="C772" t="n">
+        <v>1.261499706e-14</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>3.15919</v>
+      </c>
+      <c r="B773" t="n">
+        <v>2.6732574e-13</v>
+      </c>
+      <c r="C773" t="n">
+        <v>1.242258084e-14</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>3.15956</v>
+      </c>
+      <c r="B774" t="n">
+        <v>5.306240520000001e-13</v>
+      </c>
+      <c r="C774" t="n">
+        <v>1.573610958e-14</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>3.15976</v>
+      </c>
+      <c r="B775" t="n">
+        <v>1.000779012e-12</v>
+      </c>
+      <c r="C775" t="n">
+        <v>1.95983874e-14</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>3.15981</v>
+      </c>
+      <c r="B776" t="n">
+        <v>2.41604028e-13</v>
+      </c>
+      <c r="C776" t="n">
+        <v>9.5057874e-15</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>3.16079</v>
+      </c>
+      <c r="B777" t="n">
+        <v>8.30521656e-13</v>
+      </c>
+      <c r="C777" t="n">
+        <v>1.80788904e-14</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>3.16087</v>
+      </c>
+      <c r="B778" t="n">
+        <v>6.655508999999999e-13</v>
+      </c>
+      <c r="C778" t="n">
+        <v>1.126973358e-14</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>3.16166</v>
+      </c>
+      <c r="B779" t="n">
+        <v>2.7623286e-13</v>
+      </c>
+      <c r="C779" t="n">
+        <v>5.50610604e-15</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>3.16183</v>
+      </c>
+      <c r="B780" t="n">
+        <v>2.62995534e-13</v>
+      </c>
+      <c r="C780" t="n">
+        <v>1.210572126e-14</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>3.16249</v>
+      </c>
+      <c r="B781" t="n">
+        <v>2.25335718e-13</v>
+      </c>
+      <c r="C781" t="n">
+        <v>7.189375499999999e-15</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>3.16301</v>
+      </c>
+      <c r="B782" t="n">
+        <v>2.2582593e-13</v>
+      </c>
+      <c r="C782" t="n">
+        <v>9.812682539999999e-15</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>3.16316</v>
+      </c>
+      <c r="B783" t="n">
+        <v>2.15086122e-13</v>
+      </c>
+      <c r="C783" t="n">
+        <v>6.2531667e-15</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>3.1637</v>
+      </c>
+      <c r="B784" t="n">
+        <v>2.24734968e-13</v>
+      </c>
+      <c r="C784" t="n">
+        <v>1.156549482e-14</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>3.16392</v>
+      </c>
+      <c r="B785" t="n">
+        <v>2.004903e-13</v>
+      </c>
+      <c r="C785" t="n">
+        <v>5.2857189e-15</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>3.16488</v>
+      </c>
+      <c r="B786" t="n">
+        <v>2.23998048e-13</v>
+      </c>
+      <c r="C786" t="n">
+        <v>1.243363464e-14</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>3.16525</v>
+      </c>
+      <c r="B787" t="n">
+        <v>2.17872e-13</v>
+      </c>
+      <c r="C787" t="n">
+        <v>5.22410598e-15</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>3.16592</v>
+      </c>
+      <c r="B788" t="n">
+        <v>2.28110382e-13</v>
+      </c>
+      <c r="C788" t="n">
+        <v>1.12394718e-14</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>3.16661</v>
+      </c>
+      <c r="B789" t="n">
+        <v>2.26683e-13</v>
+      </c>
+      <c r="C789" t="n">
+        <v>7.26484572e-15</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>3.1671</v>
+      </c>
+      <c r="B790" t="n">
+        <v>2.43821196e-13</v>
+      </c>
+      <c r="C790" t="n">
+        <v>1.200849588e-14</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>3.16764</v>
+      </c>
+      <c r="B791" t="n">
+        <v>2.29776462e-13</v>
+      </c>
+      <c r="C791" t="n">
+        <v>6.97844016e-15</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>3.16808</v>
+      </c>
+      <c r="B792" t="n">
+        <v>2.68256502e-13</v>
+      </c>
+      <c r="C792" t="n">
+        <v>1.26767061e-14</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>3.1689</v>
+      </c>
+      <c r="B793" t="n">
+        <v>2.53833696e-13</v>
+      </c>
+      <c r="C793" t="n">
+        <v>7.1287398e-15</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>3.16897</v>
+      </c>
+      <c r="B794" t="n">
+        <v>2.8501182e-13</v>
+      </c>
+      <c r="C794" t="n">
+        <v>1.258989372e-14</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>3.17003</v>
+      </c>
+      <c r="B795" t="n">
+        <v>3.44575782e-13</v>
+      </c>
+      <c r="C795" t="n">
+        <v>1.410054768e-14</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>3.17043</v>
+      </c>
+      <c r="B796" t="n">
+        <v>3.0868137e-13</v>
+      </c>
+      <c r="C796" t="n">
+        <v>8.04513186e-15</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>3.17104</v>
+      </c>
+      <c r="B797" t="n">
+        <v>3.677391e-13</v>
+      </c>
+      <c r="C797" t="n">
+        <v>1.383737112e-14</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="B798" t="n">
+        <v>4.0184568e-13</v>
+      </c>
+      <c r="C798" t="n">
+        <v>1.45280574e-14</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>3.17279</v>
+      </c>
+      <c r="B799" t="n">
+        <v>4.22718138e-13</v>
+      </c>
+      <c r="C799" t="n">
+        <v>1.106448534e-14</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>3.17292</v>
+      </c>
+      <c r="B800" t="n">
+        <v>5.614577460000001e-13</v>
+      </c>
+      <c r="C800" t="n">
+        <v>1.6611138e-14</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>3.17383</v>
+      </c>
+      <c r="B801" t="n">
+        <v>5.13037296e-13</v>
+      </c>
+      <c r="C801" t="n">
+        <v>9.080135999999998e-15</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>3.17405</v>
+      </c>
+      <c r="B802" t="n">
+        <v>6.569209260000001e-13</v>
+      </c>
+      <c r="C802" t="n">
+        <v>1.72729242e-14</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>3.17462</v>
+      </c>
+      <c r="B803" t="n">
+        <v>7.1634231e-13</v>
+      </c>
+      <c r="C803" t="n">
+        <v>1.6956369e-14</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>3.17484</v>
+      </c>
+      <c r="B804" t="n">
+        <v>6.248809260000003e-13</v>
+      </c>
+      <c r="C804" t="n">
+        <v>1.223972856e-14</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>3.17509</v>
+      </c>
+      <c r="B805" t="n">
+        <v>7.55969382e-13</v>
+      </c>
+      <c r="C805" t="n">
+        <v>1.76751864e-14</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>3.17593</v>
+      </c>
+      <c r="B806" t="n">
+        <v>8.667220499999999e-13</v>
+      </c>
+      <c r="C806" t="n">
+        <v>1.95213312e-14</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>3.17709</v>
+      </c>
+      <c r="B807" t="n">
+        <v>8.97302628e-13</v>
+      </c>
+      <c r="C807" t="n">
+        <v>1.99053306e-14</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>3.17728</v>
+      </c>
+      <c r="B808" t="n">
+        <v>7.06091112e-13</v>
+      </c>
+      <c r="C808" t="n">
+        <v>1.163048796e-14</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>3.17763</v>
+      </c>
+      <c r="B809" t="n">
+        <v>9.294323400000001e-13</v>
+      </c>
+      <c r="C809" t="n">
+        <v>1.95336666e-14</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>3.17783</v>
+      </c>
+      <c r="B810" t="n">
+        <v>8.862968880000001e-13</v>
+      </c>
+      <c r="C810" t="n">
+        <v>1.9639719e-14</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>3.17815</v>
+      </c>
+      <c r="B811" t="n">
+        <v>6.73314192e-13</v>
+      </c>
+      <c r="C811" t="n">
+        <v>1.47475314e-14</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>3.17849</v>
+      </c>
+      <c r="B812" t="n">
+        <v>8.528423220000001e-13</v>
+      </c>
+      <c r="C812" t="n">
+        <v>1.93683402e-14</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>3.17886</v>
+      </c>
+      <c r="B813" t="n">
+        <v>8.090548560000001e-13</v>
+      </c>
+      <c r="C813" t="n">
+        <v>1.8547155e-14</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>3.17983</v>
+      </c>
+      <c r="B814" t="n">
+        <v>7.30387044e-13</v>
+      </c>
+      <c r="C814" t="n">
+        <v>1.60587684e-14</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>3.18111</v>
+      </c>
+      <c r="B815" t="n">
+        <v>6.08035896e-13</v>
+      </c>
+      <c r="C815" t="n">
+        <v>1.77112314e-14</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>3.18198</v>
+      </c>
+      <c r="B816" t="n">
+        <v>5.2717014e-13</v>
+      </c>
+      <c r="C816" t="n">
+        <v>1.553630814e-14</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>3.18299</v>
+      </c>
+      <c r="B817" t="n">
+        <v>4.77834948e-13</v>
+      </c>
+      <c r="C817" t="n">
+        <v>1.446825474e-14</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B818" t="n">
+        <v>2.65488246e-13</v>
+      </c>
+      <c r="C818" t="n">
+        <v>6.149885759999999e-15</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B819" t="n">
+        <v>3.57249204e-13</v>
+      </c>
+      <c r="C819" t="n">
+        <v>9.60597648e-15</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>3.18398</v>
+      </c>
+      <c r="B820" t="n">
+        <v>3.54612312e-13</v>
+      </c>
+      <c r="C820" t="n">
+        <v>1.329647184e-14</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>3.18499</v>
+      </c>
+      <c r="B821" t="n">
+        <v>3.36014694e-13</v>
+      </c>
+      <c r="C821" t="n">
+        <v>1.366784748e-14</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="B822" t="n">
+        <v>2.967128280000001e-13</v>
+      </c>
+      <c r="C822" t="n">
+        <v>1.298537946e-14</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>3.18704</v>
+      </c>
+      <c r="B823" t="n">
+        <v>2.38400028e-13</v>
+      </c>
+      <c r="C823" t="n">
+        <v>1.194302214e-14</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>3.18805</v>
+      </c>
+      <c r="B824" t="n">
+        <v>2.0822796e-13</v>
+      </c>
+      <c r="C824" t="n">
+        <v>1.127708676e-14</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>3.18892</v>
+      </c>
+      <c r="B825" t="n">
+        <v>2.31878286e-13</v>
+      </c>
+      <c r="C825" t="n">
+        <v>1.19209626e-14</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>3.18983</v>
+      </c>
+      <c r="B826" t="n">
+        <v>1.7906355e-13</v>
+      </c>
+      <c r="C826" t="n">
+        <v>3.34752318e-15</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>3.18993</v>
+      </c>
+      <c r="B827" t="n">
+        <v>1.89928314e-13</v>
+      </c>
+      <c r="C827" t="n">
+        <v>1.167995772e-14</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="B828" t="n">
+        <v>1.467342288e-13</v>
+      </c>
+      <c r="C828" t="n">
+        <v>9.882914219999999e-15</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>3.19196</v>
+      </c>
+      <c r="B829" t="n">
+        <v>1.6299549e-13</v>
+      </c>
+      <c r="C829" t="n">
+        <v>4.7468862e-15</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>3.19199</v>
+      </c>
+      <c r="B830" t="n">
+        <v>1.428072462e-13</v>
+      </c>
+      <c r="C830" t="n">
+        <v>9.126129420000001e-15</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>3.19298</v>
+      </c>
+      <c r="B831" t="n">
+        <v>1.36734705e-13</v>
+      </c>
+      <c r="C831" t="n">
+        <v>9.927161460000001e-15</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>3.19384</v>
+      </c>
+      <c r="B832" t="n">
+        <v>1.34149878e-13</v>
+      </c>
+      <c r="C832" t="n">
+        <v>9.103477139999999e-15</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>3.19392</v>
+      </c>
+      <c r="B833" t="n">
+        <v>1.197219456e-13</v>
+      </c>
+      <c r="C833" t="n">
+        <v>7.81378704e-15</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>3.19493</v>
+      </c>
+      <c r="B834" t="n">
+        <v>9.28705032e-14</v>
+      </c>
+      <c r="C834" t="n">
+        <v>9.23335128e-15</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>3.19501</v>
+      </c>
+      <c r="B835" t="n">
+        <v>1.448211204e-13</v>
+      </c>
+      <c r="C835" t="n">
+        <v>1.059128658e-14</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>3.1959</v>
+      </c>
+      <c r="B836" t="n">
+        <v>1.101934098e-13</v>
+      </c>
+      <c r="C836" t="n">
+        <v>7.81276176e-15</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="B837" t="n">
+        <v>1.120586184e-13</v>
+      </c>
+      <c r="C837" t="n">
+        <v>1.106552664e-14</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B838" t="n">
+        <v>1.27177974e-13</v>
+      </c>
+      <c r="C838" t="n">
+        <v>1.194439986e-14</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B839" t="n">
+        <v>1.01858364e-13</v>
+      </c>
+      <c r="C839" t="n">
+        <v>7.86372138e-15</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>3.1976</v>
+      </c>
+      <c r="B840" t="n">
+        <v>1.14924276e-13</v>
+      </c>
+      <c r="C840" t="n">
+        <v>5.85753678e-15</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>3.19795</v>
+      </c>
+      <c r="B841" t="n">
+        <v>1.247874696e-13</v>
+      </c>
+      <c r="C841" t="n">
+        <v>1.051394202e-14</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
         <v>3.19867</v>
       </c>
-      <c r="B705" t="n">
+      <c r="B842" t="n">
         <v>9.375688980000001e-14</v>
       </c>
-      <c r="C705" t="n">
+      <c r="C842" t="n">
         <v>7.429563359999999e-15</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>3.19892</v>
+      </c>
+      <c r="B843" t="n">
+        <v>1.206366876e-13</v>
+      </c>
+      <c r="C843" t="n">
+        <v>9.791776440000001e-15</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>3.2005</v>
+      </c>
+      <c r="B844" t="n">
+        <v>1.07011197e-13</v>
+      </c>
+      <c r="C844" t="n">
+        <v>8.500836780000001e-15</v>
       </c>
     </row>
   </sheetData>
